--- a/PrevAnomTemp_x_tempo.xlsx
+++ b/PrevAnomTemp_x_tempo.xlsx
@@ -487,13 +487,13 @@
         <v>1.109764882658659</v>
       </c>
       <c r="F2" t="n">
-        <v>1.232167471950879</v>
+        <v>1.232167471950861</v>
       </c>
       <c r="G2" t="n">
-        <v>1.222669083605372</v>
+        <v>1.222669083597128</v>
       </c>
       <c r="H2" t="n">
-        <v>1.349407863749775</v>
+        <v>1.349407887510552</v>
       </c>
     </row>
     <row r="3">
@@ -513,13 +513,13 @@
         <v>1.111187030057231</v>
       </c>
       <c r="F3" t="n">
-        <v>1.234300776561302</v>
+        <v>1.234300776561284</v>
       </c>
       <c r="G3" t="n">
-        <v>1.224748903618101</v>
+        <v>1.224748903609851</v>
       </c>
       <c r="H3" t="n">
-        <v>1.352015923324871</v>
+        <v>1.352015947203199</v>
       </c>
     </row>
     <row r="4">
@@ -539,13 +539,13 @@
         <v>1.112516830222127</v>
       </c>
       <c r="F4" t="n">
-        <v>1.236297193813564</v>
+        <v>1.236297193813545</v>
       </c>
       <c r="G4" t="n">
-        <v>1.226695155620272</v>
+        <v>1.226695155612016</v>
       </c>
       <c r="H4" t="n">
-        <v>1.354456762361451</v>
+        <v>1.354456786350283</v>
       </c>
     </row>
     <row r="5">
@@ -565,13 +565,13 @@
         <v>1.113938977620698</v>
       </c>
       <c r="F5" t="n">
-        <v>1.238434005337761</v>
+        <v>1.238434005337734</v>
       </c>
       <c r="G5" t="n">
-        <v>1.228778153551836</v>
+        <v>1.228778153543574</v>
       </c>
       <c r="H5" t="n">
-        <v>1.357069386281182</v>
+        <v>1.357069410387908</v>
       </c>
     </row>
     <row r="6">
@@ -591,13 +591,13 @@
         <v>1.115315790922736</v>
       </c>
       <c r="F6" t="n">
-        <v>1.240504429962715</v>
+        <v>1.240504429962698</v>
       </c>
       <c r="G6" t="n">
-        <v>1.23079631760525</v>
+        <v>1.230796317596982</v>
       </c>
       <c r="H6" t="n">
-        <v>1.359600974197747</v>
+        <v>1.359600998418955</v>
       </c>
     </row>
     <row r="7">
@@ -617,13 +617,13 @@
         <v>1.116737938321307</v>
       </c>
       <c r="F7" t="n">
-        <v>1.242644814224947</v>
+        <v>1.242644814224929</v>
       </c>
       <c r="G7" t="n">
-        <v>1.232882552463633</v>
+        <v>1.232882552455359</v>
       </c>
       <c r="H7" t="n">
-        <v>1.362218240437073</v>
+        <v>1.36221826477697</v>
       </c>
     </row>
     <row r="8">
@@ -643,13 +643,13 @@
         <v>1.118114751623345</v>
       </c>
       <c r="F8" t="n">
-        <v>1.244718700589376</v>
+        <v>1.244718700589359</v>
       </c>
       <c r="G8" t="n">
-        <v>1.234903852565049</v>
+        <v>1.234903852556769</v>
       </c>
       <c r="H8" t="n">
-        <v>1.364754322689237</v>
+        <v>1.364754347144071</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         <v>1.119536899021917</v>
       </c>
       <c r="F9" t="n">
-        <v>1.246862663563242</v>
+        <v>1.246862663563223</v>
       </c>
       <c r="G9" t="n">
-        <v>1.236993329114515</v>
+        <v>1.23699332910623</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3673762312485</v>
+        <v>1.367376255822364</v>
       </c>
     </row>
     <row r="10">
@@ -695,13 +695,13 @@
         <v>1.120959046420481</v>
       </c>
       <c r="F10" t="n">
-        <v>1.249008447166553</v>
+        <v>1.249008447166535</v>
       </c>
       <c r="G10" t="n">
-        <v>1.239084454589421</v>
+        <v>1.239084454581129</v>
       </c>
       <c r="H10" t="n">
-        <v>1.370000498562945</v>
+        <v>1.370000523256067</v>
       </c>
     </row>
     <row r="11">
@@ -721,13 +721,13 @@
         <v>1.122334180681911</v>
       </c>
       <c r="F11" t="n">
-        <v>1.251085028573863</v>
+        <v>1.251085028573845</v>
       </c>
       <c r="G11" t="n">
-        <v>1.241108021170171</v>
+        <v>1.241108021161874</v>
       </c>
       <c r="H11" t="n">
-        <v>1.372540256319894</v>
+        <v>1.372540281128636</v>
       </c>
     </row>
     <row r="12">
@@ -747,13 +747,13 @@
         <v>1.123756328080475</v>
       </c>
       <c r="F12" t="n">
-        <v>1.253234397762469</v>
+        <v>1.253234397762451</v>
       </c>
       <c r="G12" t="n">
-        <v>1.243202393583284</v>
+        <v>1.243202393574981</v>
       </c>
       <c r="H12" t="n">
-        <v>1.375169163169289</v>
+        <v>1.375169188097743</v>
       </c>
     </row>
     <row r="13">
@@ -773,13 +773,13 @@
         <v>1.12513314138252</v>
       </c>
       <c r="F13" t="n">
-        <v>1.255316989907753</v>
+        <v>1.255316989907735</v>
       </c>
       <c r="G13" t="n">
-        <v>1.24523157763173</v>
+        <v>1.245231577623421</v>
       </c>
       <c r="H13" t="n">
-        <v>1.377716514961321</v>
+        <v>1.377716540005736</v>
       </c>
     </row>
   </sheetData>

--- a/PrevAnomTemp_x_tempo.xlsx
+++ b/PrevAnomTemp_x_tempo.xlsx
@@ -487,13 +487,13 @@
         <v>1.109764882658659</v>
       </c>
       <c r="F2" t="n">
-        <v>1.232167471950861</v>
+        <v>1.232167471950879</v>
       </c>
       <c r="G2" t="n">
-        <v>1.222669083597128</v>
+        <v>1.222669083605372</v>
       </c>
       <c r="H2" t="n">
-        <v>1.349407887510552</v>
+        <v>1.349407863749775</v>
       </c>
     </row>
     <row r="3">
@@ -513,13 +513,13 @@
         <v>1.111187030057231</v>
       </c>
       <c r="F3" t="n">
-        <v>1.234300776561284</v>
+        <v>1.234300776561302</v>
       </c>
       <c r="G3" t="n">
-        <v>1.224748903609851</v>
+        <v>1.224748903618101</v>
       </c>
       <c r="H3" t="n">
-        <v>1.352015947203199</v>
+        <v>1.352015923324871</v>
       </c>
     </row>
     <row r="4">
@@ -539,13 +539,13 @@
         <v>1.112516830222127</v>
       </c>
       <c r="F4" t="n">
-        <v>1.236297193813545</v>
+        <v>1.236297193813564</v>
       </c>
       <c r="G4" t="n">
-        <v>1.226695155612016</v>
+        <v>1.226695155620272</v>
       </c>
       <c r="H4" t="n">
-        <v>1.354456786350283</v>
+        <v>1.354456762361451</v>
       </c>
     </row>
     <row r="5">
@@ -565,13 +565,13 @@
         <v>1.113938977620698</v>
       </c>
       <c r="F5" t="n">
-        <v>1.238434005337734</v>
+        <v>1.238434005337761</v>
       </c>
       <c r="G5" t="n">
-        <v>1.228778153543574</v>
+        <v>1.228778153551836</v>
       </c>
       <c r="H5" t="n">
-        <v>1.357069410387908</v>
+        <v>1.357069386281182</v>
       </c>
     </row>
     <row r="6">
@@ -591,13 +591,13 @@
         <v>1.115315790922736</v>
       </c>
       <c r="F6" t="n">
-        <v>1.240504429962698</v>
+        <v>1.240504429962715</v>
       </c>
       <c r="G6" t="n">
-        <v>1.230796317596982</v>
+        <v>1.23079631760525</v>
       </c>
       <c r="H6" t="n">
-        <v>1.359600998418955</v>
+        <v>1.359600974197747</v>
       </c>
     </row>
     <row r="7">
@@ -617,13 +617,13 @@
         <v>1.116737938321307</v>
       </c>
       <c r="F7" t="n">
-        <v>1.242644814224929</v>
+        <v>1.242644814224947</v>
       </c>
       <c r="G7" t="n">
-        <v>1.232882552455359</v>
+        <v>1.232882552463633</v>
       </c>
       <c r="H7" t="n">
-        <v>1.36221826477697</v>
+        <v>1.362218240437073</v>
       </c>
     </row>
     <row r="8">
@@ -643,13 +643,13 @@
         <v>1.118114751623345</v>
       </c>
       <c r="F8" t="n">
-        <v>1.244718700589359</v>
+        <v>1.244718700589376</v>
       </c>
       <c r="G8" t="n">
-        <v>1.234903852556769</v>
+        <v>1.234903852565049</v>
       </c>
       <c r="H8" t="n">
-        <v>1.364754347144071</v>
+        <v>1.364754322689237</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         <v>1.119536899021917</v>
       </c>
       <c r="F9" t="n">
-        <v>1.246862663563223</v>
+        <v>1.246862663563242</v>
       </c>
       <c r="G9" t="n">
-        <v>1.23699332910623</v>
+        <v>1.236993329114515</v>
       </c>
       <c r="H9" t="n">
-        <v>1.367376255822364</v>
+        <v>1.3673762312485</v>
       </c>
     </row>
     <row r="10">
@@ -695,13 +695,13 @@
         <v>1.120959046420481</v>
       </c>
       <c r="F10" t="n">
-        <v>1.249008447166535</v>
+        <v>1.249008447166553</v>
       </c>
       <c r="G10" t="n">
-        <v>1.239084454581129</v>
+        <v>1.239084454589421</v>
       </c>
       <c r="H10" t="n">
-        <v>1.370000523256067</v>
+        <v>1.370000498562945</v>
       </c>
     </row>
     <row r="11">
@@ -721,13 +721,13 @@
         <v>1.122334180681911</v>
       </c>
       <c r="F11" t="n">
-        <v>1.251085028573845</v>
+        <v>1.251085028573863</v>
       </c>
       <c r="G11" t="n">
-        <v>1.241108021161874</v>
+        <v>1.241108021170171</v>
       </c>
       <c r="H11" t="n">
-        <v>1.372540281128636</v>
+        <v>1.372540256319894</v>
       </c>
     </row>
     <row r="12">
@@ -747,13 +747,13 @@
         <v>1.123756328080475</v>
       </c>
       <c r="F12" t="n">
-        <v>1.253234397762451</v>
+        <v>1.253234397762469</v>
       </c>
       <c r="G12" t="n">
-        <v>1.243202393574981</v>
+        <v>1.243202393583284</v>
       </c>
       <c r="H12" t="n">
-        <v>1.375169188097743</v>
+        <v>1.375169163169289</v>
       </c>
     </row>
     <row r="13">
@@ -773,13 +773,13 @@
         <v>1.12513314138252</v>
       </c>
       <c r="F13" t="n">
-        <v>1.255316989907735</v>
+        <v>1.255316989907753</v>
       </c>
       <c r="G13" t="n">
-        <v>1.245231577623421</v>
+        <v>1.24523157763173</v>
       </c>
       <c r="H13" t="n">
-        <v>1.377716540005736</v>
+        <v>1.377716514961321</v>
       </c>
     </row>
   </sheetData>
